--- a/biology/Zoologie/Compsura/Compsura.xlsx
+++ b/biology/Zoologie/Compsura/Compsura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Compsura est un genre de poissons d'eau douce téléostéens de la famille des Characidae (ordre des Characiformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Compsura se rencontrent en Amérique centrale ou en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Compsura se rencontrent en Amérique centrale ou en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (2 décembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (2 décembre 2023) :
 Compsura gorgonae (Evermann &amp; Goldsborough, 1909)
 Compsura heterura Eigenmann, 1915</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Compsura Eigenmann, 1915[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Compsura Eigenmann, 1915,.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, Compsura, est la combinaison des termes en grec ancien κομψός, kompsós, « raffiné, élégant », et οὐρά, ourá, « queue », et fait référence à la tache triangulaire bien visible sur la nageoire caudale[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, Compsura, est la combinaison des termes en grec ancien κομψός, kompsós, « raffiné, élégant », et οὐρά, ourá, « queue », et fait référence à la tache triangulaire bien visible sur la nageoire caudale.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Carl H. Eigenmann, « The Cheirodontinae, a subfamily of minute characid fishes of South America », Memoirs of the Carnegie Museum, Pittsburgh, Carnegie Museum, vol. 7, no 1,‎ 1915, p. 1-99 (ISSN 0885-4645, OCLC 1605099, LCCN 16004874, DOI 10.5962/BHL.TITLE.46579, lire en ligne)</t>
         </is>
